--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliusles\Documents\git\bitcoin-chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71893F8-D65D-40CB-8203-266B242AB36F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B40544F-6016-4C75-837D-0D72004C47D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3F27ECE7-19CD-45F2-824B-9B826E9487C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>2.2nF</t>
   </si>
@@ -140,9 +140,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>rse</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -222,6 +219,33 @@
   </si>
   <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/murata/grm31br73a222kw01l/cap-2200pf-1-kv-10-x7r-1206/dp/2494291</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/avx/12061c104jat2a/cap-0-1-f-100v-5-x7r-1206/dp/2332842</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/multicomp/mcu1206r103kct/cap-0-01-f-50v-10-x7r-1206/dp/9406549</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/multicomp/mc0805b103k101ct/cap-0-01-f-100v-10-x7r-0805/dp/1759295</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/yageo/rc1206fr-07150rl/res-150r-1-0-25w-1206-thick-film/dp/9240896</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/tt-electronics-welwyn/wcr1206-160rfi/res-160r-1-0-25w-1206-thick-film/dp/1100170</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/yageo/rc1206fr-0710kl/res-10k-1-0-25w-1206-thick-film/dp/9241000</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/multicomp/mcmr08x1002ftl/res-10k-1-0-125w-0805-ceramic/dp/2073607</t>
+  </si>
+  <si>
+    <t>https://fi.farnell.com/multicomp/mcmr08x1001ftl/res-1k-1-0-125w-0805-ceramic/dp/2073606</t>
   </si>
 </sst>
 </file>
@@ -585,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5209AD94-0EDE-4CA2-BD61-A2904B65AC7A}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
@@ -597,7 +621,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -610,8 +634,14 @@
       <c r="D1" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>2494291</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -624,8 +654,14 @@
       <c r="D2" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>2332842</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -638,8 +674,14 @@
       <c r="D3" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>9406549</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -652,8 +694,11 @@
       <c r="D4" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2332842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -666,8 +711,14 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1759295</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -680,8 +731,11 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1759295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -692,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -703,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -711,10 +765,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -722,10 +776,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -733,10 +787,10 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -744,10 +798,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -758,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -771,8 +825,14 @@
       <c r="D14" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>9240896</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -785,8 +845,14 @@
       <c r="D15" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1100170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -794,13 +860,19 @@
         <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>9241000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -808,13 +880,16 @@
         <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>9241000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -822,13 +897,16 @@
         <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>9241000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -836,13 +914,19 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2073607</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -850,13 +934,16 @@
         <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2073607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -864,13 +951,16 @@
         <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2073607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -878,13 +968,16 @@
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2073607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -892,142 +985,151 @@
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>2073606</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2073607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
         <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
